--- a/RaxML_analysis/LST8/EMSEMBL_LST8-1_homologs.xlsx
+++ b/RaxML_analysis/LST8/EMSEMBL_LST8-1_homologs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\RaxML_analysis\LST8-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\RaxML_analysis\LST8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF13AAC-306C-4C58-B114-A2427FBCB8D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1140D010-CC9F-4FCA-AB7A-28F26CD3B237}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMSEMBL_LST8-1_homologs" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,20 @@
     <sheet name="homolo" sheetId="4" r:id="rId4"/>
     <sheet name="phyto" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="550">
   <si>
     <t>gene_stable_id</t>
   </si>
@@ -911,291 +919,6 @@
     <t>Ppat</t>
   </si>
   <si>
-    <t>Arabidopsis thaliana</t>
-  </si>
-  <si>
-    <t>Capsella rubella</t>
-  </si>
-  <si>
-    <t>Camelina sativa</t>
-  </si>
-  <si>
-    <t>Brassica oleracea var. oleracea</t>
-  </si>
-  <si>
-    <t>Brassica rapa</t>
-  </si>
-  <si>
-    <t>Eutrema salsugineum</t>
-  </si>
-  <si>
-    <t>Tarenaya hassleriana</t>
-  </si>
-  <si>
-    <t>Raphanus sativus</t>
-  </si>
-  <si>
-    <t>Juglans regia</t>
-  </si>
-  <si>
-    <t>Cucurbita moschata</t>
-  </si>
-  <si>
-    <t>Durio zibethinus</t>
-  </si>
-  <si>
-    <t>Cucurbita pepo subsp. pepo</t>
-  </si>
-  <si>
-    <t>Glycine max</t>
-  </si>
-  <si>
-    <t>Cucumis sativus</t>
-  </si>
-  <si>
-    <t>Cynara cardunculus var. scolymus</t>
-  </si>
-  <si>
-    <t>Theobroma cacao</t>
-  </si>
-  <si>
-    <t>Momordica charantia</t>
-  </si>
-  <si>
-    <t>Helianthus annuus</t>
-  </si>
-  <si>
-    <t>Vigna unguiculata</t>
-  </si>
-  <si>
-    <t>Vigna radiata var. radiata</t>
-  </si>
-  <si>
-    <t>Gossypium raimondii</t>
-  </si>
-  <si>
-    <t>Cicer arietinum</t>
-  </si>
-  <si>
-    <t>Coffea arabica</t>
-  </si>
-  <si>
-    <t>Phaseolus vulgaris</t>
-  </si>
-  <si>
-    <t>Abrus precatorius</t>
-  </si>
-  <si>
-    <t>Quercus suber</t>
-  </si>
-  <si>
-    <t>Glycine soja</t>
-  </si>
-  <si>
-    <t>Lupinus angustifolius</t>
-  </si>
-  <si>
-    <t>Sesamum indicum</t>
-  </si>
-  <si>
-    <t>Prunus persica</t>
-  </si>
-  <si>
-    <t>Ricinus communis</t>
-  </si>
-  <si>
-    <t>Solanum tuberosum</t>
-  </si>
-  <si>
-    <t>Olea europaea var. sylvestris</t>
-  </si>
-  <si>
-    <t>Nelumbo nucifera</t>
-  </si>
-  <si>
-    <t>Daucus carota subsp. sativus</t>
-  </si>
-  <si>
-    <t>Solanum pennellii</t>
-  </si>
-  <si>
-    <t>Medicago truncatula</t>
-  </si>
-  <si>
-    <t>Prunus mume</t>
-  </si>
-  <si>
-    <t>Carica papaya</t>
-  </si>
-  <si>
-    <t>Manihot esculenta</t>
-  </si>
-  <si>
-    <t>Solanum lycopersicum</t>
-  </si>
-  <si>
-    <t>Hevea brasiliensis</t>
-  </si>
-  <si>
-    <t>Arachis ipaensis</t>
-  </si>
-  <si>
-    <t>Camellia sinensis</t>
-  </si>
-  <si>
-    <t>Gossypium hirsutum</t>
-  </si>
-  <si>
-    <t>Populus trichocarpa</t>
-  </si>
-  <si>
-    <t>Rosa chinensis</t>
-  </si>
-  <si>
-    <t>Cucurbita maxima</t>
-  </si>
-  <si>
-    <t>Ziziphus jujuba</t>
-  </si>
-  <si>
-    <t>Populus euphratica</t>
-  </si>
-  <si>
-    <t>Jatropha curcas</t>
-  </si>
-  <si>
-    <t>Phalaenopsis equestris</t>
-  </si>
-  <si>
-    <t>Fragaria vesca subsp. vesca</t>
-  </si>
-  <si>
-    <t>Citrus sinensis</t>
-  </si>
-  <si>
-    <t>Nicotiana tomentosiformis</t>
-  </si>
-  <si>
-    <t>Pyrus x bretschneideri</t>
-  </si>
-  <si>
-    <t>Capsicum annuum</t>
-  </si>
-  <si>
-    <t>Erythranthe guttata</t>
-  </si>
-  <si>
-    <t>Citrus clementina</t>
-  </si>
-  <si>
-    <t>Morus notabilis</t>
-  </si>
-  <si>
-    <t>Ipomoea nil</t>
-  </si>
-  <si>
-    <t>Musa acuminata subsp. malaccensis</t>
-  </si>
-  <si>
-    <t>Malus domestica</t>
-  </si>
-  <si>
-    <t>Asparagus officinalis</t>
-  </si>
-  <si>
-    <t>Panicum hallii</t>
-  </si>
-  <si>
-    <t>Zea mays</t>
-  </si>
-  <si>
-    <t>Setaria italica</t>
-  </si>
-  <si>
-    <t>Amborella trichopoda</t>
-  </si>
-  <si>
-    <t>Aegilops tauschii subsp. tauschii</t>
-  </si>
-  <si>
-    <t>Dendrobium catenatum</t>
-  </si>
-  <si>
-    <t>Cajanus cajan</t>
-  </si>
-  <si>
-    <t>Brachypodium distachyon</t>
-  </si>
-  <si>
-    <t>Elaeis guineensis</t>
-  </si>
-  <si>
-    <t>Sorghum bicolor</t>
-  </si>
-  <si>
-    <t>Vitis vinifera</t>
-  </si>
-  <si>
-    <t>Ananas comosus</t>
-  </si>
-  <si>
-    <t>Homo sapiens</t>
-  </si>
-  <si>
-    <t>Pan troglodytes</t>
-  </si>
-  <si>
-    <t>Macaca mulatta</t>
-  </si>
-  <si>
-    <t>Canis lupus familiaris</t>
-  </si>
-  <si>
-    <t>Bos taurus</t>
-  </si>
-  <si>
-    <t>Mus musculus</t>
-  </si>
-  <si>
-    <t>Rattus norvegicus</t>
-  </si>
-  <si>
-    <t>Gallus gallus</t>
-  </si>
-  <si>
-    <t>Danio rerio</t>
-  </si>
-  <si>
-    <t>Drosophila melanogaster</t>
-  </si>
-  <si>
-    <t>Anopheles gambiae str. PEST</t>
-  </si>
-  <si>
-    <t>Saccharomyces cerevisiae S288C</t>
-  </si>
-  <si>
-    <t>Kluyveromyces lactis</t>
-  </si>
-  <si>
-    <t>Eremothecium gossypii ATCC 10895</t>
-  </si>
-  <si>
-    <t>Schizosaccharomyces pombe</t>
-  </si>
-  <si>
-    <t>Pyricularia oryzae 70-15</t>
-  </si>
-  <si>
-    <t>Neurospora crassa OR74A</t>
-  </si>
-  <si>
-    <t>Oryza sativa Japonica Group</t>
-  </si>
-  <si>
-    <t>Xenopus tropicalis</t>
-  </si>
-  <si>
     <t>Org_MpusillaCCMP1545</t>
   </si>
   <si>
@@ -1386,6 +1109,579 @@
   </si>
   <si>
     <t>Org_Zmarina</t>
+  </si>
+  <si>
+    <t>Arabidopsis</t>
+  </si>
+  <si>
+    <t>thaliana</t>
+  </si>
+  <si>
+    <t>Capsella</t>
+  </si>
+  <si>
+    <t>rubella</t>
+  </si>
+  <si>
+    <t>Camelina</t>
+  </si>
+  <si>
+    <t>sativa</t>
+  </si>
+  <si>
+    <t>Brassica</t>
+  </si>
+  <si>
+    <t>oleracea</t>
+  </si>
+  <si>
+    <t>var.</t>
+  </si>
+  <si>
+    <t>rapa</t>
+  </si>
+  <si>
+    <t>Eutrema</t>
+  </si>
+  <si>
+    <t>salsugineum</t>
+  </si>
+  <si>
+    <t>Tarenaya</t>
+  </si>
+  <si>
+    <t>hassleriana</t>
+  </si>
+  <si>
+    <t>Raphanus</t>
+  </si>
+  <si>
+    <t>sativus</t>
+  </si>
+  <si>
+    <t>Juglans</t>
+  </si>
+  <si>
+    <t>regia</t>
+  </si>
+  <si>
+    <t>Cucurbita</t>
+  </si>
+  <si>
+    <t>moschata</t>
+  </si>
+  <si>
+    <t>Durio</t>
+  </si>
+  <si>
+    <t>zibethinus</t>
+  </si>
+  <si>
+    <t>pepo</t>
+  </si>
+  <si>
+    <t>subsp.</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Cucumis</t>
+  </si>
+  <si>
+    <t>Cynara</t>
+  </si>
+  <si>
+    <t>cardunculus</t>
+  </si>
+  <si>
+    <t>scolymus</t>
+  </si>
+  <si>
+    <t>Theobroma</t>
+  </si>
+  <si>
+    <t>cacao</t>
+  </si>
+  <si>
+    <t>Momordica</t>
+  </si>
+  <si>
+    <t>charantia</t>
+  </si>
+  <si>
+    <t>Helianthus</t>
+  </si>
+  <si>
+    <t>annuus</t>
+  </si>
+  <si>
+    <t>Vigna</t>
+  </si>
+  <si>
+    <t>unguiculata</t>
+  </si>
+  <si>
+    <t>radiata</t>
+  </si>
+  <si>
+    <t>Gossypium</t>
+  </si>
+  <si>
+    <t>raimondii</t>
+  </si>
+  <si>
+    <t>Cicer</t>
+  </si>
+  <si>
+    <t>arietinum</t>
+  </si>
+  <si>
+    <t>Coffea</t>
+  </si>
+  <si>
+    <t>arabica</t>
+  </si>
+  <si>
+    <t>Phaseolus</t>
+  </si>
+  <si>
+    <t>vulgaris</t>
+  </si>
+  <si>
+    <t>Abrus</t>
+  </si>
+  <si>
+    <t>precatorius</t>
+  </si>
+  <si>
+    <t>Quercus</t>
+  </si>
+  <si>
+    <t>suber</t>
+  </si>
+  <si>
+    <t>soja</t>
+  </si>
+  <si>
+    <t>Lupinus</t>
+  </si>
+  <si>
+    <t>angustifolius</t>
+  </si>
+  <si>
+    <t>Sesamum</t>
+  </si>
+  <si>
+    <t>indicum</t>
+  </si>
+  <si>
+    <t>Prunus</t>
+  </si>
+  <si>
+    <t>persica</t>
+  </si>
+  <si>
+    <t>Ricinus</t>
+  </si>
+  <si>
+    <t>communis</t>
+  </si>
+  <si>
+    <t>Solanum</t>
+  </si>
+  <si>
+    <t>tuberosum</t>
+  </si>
+  <si>
+    <t>Olea</t>
+  </si>
+  <si>
+    <t>europaea</t>
+  </si>
+  <si>
+    <t>sylvestris</t>
+  </si>
+  <si>
+    <t>Nelumbo</t>
+  </si>
+  <si>
+    <t>nucifera</t>
+  </si>
+  <si>
+    <t>Daucus</t>
+  </si>
+  <si>
+    <t>carota</t>
+  </si>
+  <si>
+    <t>pennellii</t>
+  </si>
+  <si>
+    <t>Medicago</t>
+  </si>
+  <si>
+    <t>truncatula</t>
+  </si>
+  <si>
+    <t>mume</t>
+  </si>
+  <si>
+    <t>Carica</t>
+  </si>
+  <si>
+    <t>papaya</t>
+  </si>
+  <si>
+    <t>Manihot</t>
+  </si>
+  <si>
+    <t>esculenta</t>
+  </si>
+  <si>
+    <t>lycopersicum</t>
+  </si>
+  <si>
+    <t>Hevea</t>
+  </si>
+  <si>
+    <t>brasiliensis</t>
+  </si>
+  <si>
+    <t>Arachis</t>
+  </si>
+  <si>
+    <t>ipaensis</t>
+  </si>
+  <si>
+    <t>Camellia</t>
+  </si>
+  <si>
+    <t>sinensis</t>
+  </si>
+  <si>
+    <t>hirsutum</t>
+  </si>
+  <si>
+    <t>Populus</t>
+  </si>
+  <si>
+    <t>trichocarpa</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>chinensis</t>
+  </si>
+  <si>
+    <t>maxima</t>
+  </si>
+  <si>
+    <t>Ziziphus</t>
+  </si>
+  <si>
+    <t>jujuba</t>
+  </si>
+  <si>
+    <t>euphratica</t>
+  </si>
+  <si>
+    <t>Jatropha</t>
+  </si>
+  <si>
+    <t>curcas</t>
+  </si>
+  <si>
+    <t>Phalaenopsis</t>
+  </si>
+  <si>
+    <t>equestris</t>
+  </si>
+  <si>
+    <t>Fragaria</t>
+  </si>
+  <si>
+    <t>vesca</t>
+  </si>
+  <si>
+    <t>Citrus</t>
+  </si>
+  <si>
+    <t>Nicotiana</t>
+  </si>
+  <si>
+    <t>tomentosiformis</t>
+  </si>
+  <si>
+    <t>Pyrus</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>bretschneideri</t>
+  </si>
+  <si>
+    <t>Capsicum</t>
+  </si>
+  <si>
+    <t>annuum</t>
+  </si>
+  <si>
+    <t>Erythranthe</t>
+  </si>
+  <si>
+    <t>guttata</t>
+  </si>
+  <si>
+    <t>clementina</t>
+  </si>
+  <si>
+    <t>Morus</t>
+  </si>
+  <si>
+    <t>notabilis</t>
+  </si>
+  <si>
+    <t>Ipomoea</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>Musa</t>
+  </si>
+  <si>
+    <t>acuminata</t>
+  </si>
+  <si>
+    <t>malaccensis</t>
+  </si>
+  <si>
+    <t>Malus</t>
+  </si>
+  <si>
+    <t>domestica</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>officinalis</t>
+  </si>
+  <si>
+    <t>Panicum</t>
+  </si>
+  <si>
+    <t>hallii</t>
+  </si>
+  <si>
+    <t>Zea</t>
+  </si>
+  <si>
+    <t>mays</t>
+  </si>
+  <si>
+    <t>Setaria</t>
+  </si>
+  <si>
+    <t>italica</t>
+  </si>
+  <si>
+    <t>Amborella</t>
+  </si>
+  <si>
+    <t>trichopoda</t>
+  </si>
+  <si>
+    <t>Aegilops</t>
+  </si>
+  <si>
+    <t>tauschii</t>
+  </si>
+  <si>
+    <t>Dendrobium</t>
+  </si>
+  <si>
+    <t>catenatum</t>
+  </si>
+  <si>
+    <t>Cajanus</t>
+  </si>
+  <si>
+    <t>cajan</t>
+  </si>
+  <si>
+    <t>Brachypodium</t>
+  </si>
+  <si>
+    <t>distachyon</t>
+  </si>
+  <si>
+    <t>Elaeis</t>
+  </si>
+  <si>
+    <t>guineensis</t>
+  </si>
+  <si>
+    <t>Sorghum</t>
+  </si>
+  <si>
+    <t>bicolor</t>
+  </si>
+  <si>
+    <t>Vitis</t>
+  </si>
+  <si>
+    <t>vinifera</t>
+  </si>
+  <si>
+    <t>Ananas</t>
+  </si>
+  <si>
+    <t>comosus</t>
+  </si>
+  <si>
+    <t>Homo</t>
+  </si>
+  <si>
+    <t>sapiens</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>troglodytes</t>
+  </si>
+  <si>
+    <t>Macaca</t>
+  </si>
+  <si>
+    <t>mulatta</t>
+  </si>
+  <si>
+    <t>Canis</t>
+  </si>
+  <si>
+    <t>lupus</t>
+  </si>
+  <si>
+    <t>familiaris</t>
+  </si>
+  <si>
+    <t>Bos</t>
+  </si>
+  <si>
+    <t>taurus</t>
+  </si>
+  <si>
+    <t>Mus</t>
+  </si>
+  <si>
+    <t>musculus</t>
+  </si>
+  <si>
+    <t>Rattus</t>
+  </si>
+  <si>
+    <t>norvegicus</t>
+  </si>
+  <si>
+    <t>Gallus</t>
+  </si>
+  <si>
+    <t>gallus</t>
+  </si>
+  <si>
+    <t>Danio</t>
+  </si>
+  <si>
+    <t>rerio</t>
+  </si>
+  <si>
+    <t>Drosophila</t>
+  </si>
+  <si>
+    <t>melanogaster</t>
+  </si>
+  <si>
+    <t>Anopheles</t>
+  </si>
+  <si>
+    <t>gambiae</t>
+  </si>
+  <si>
+    <t>str.</t>
+  </si>
+  <si>
+    <t>PEST</t>
+  </si>
+  <si>
+    <t>Saccharomyces</t>
+  </si>
+  <si>
+    <t>cerevisiae</t>
+  </si>
+  <si>
+    <t>S288C</t>
+  </si>
+  <si>
+    <t>Kluyveromyces</t>
+  </si>
+  <si>
+    <t>lactis</t>
+  </si>
+  <si>
+    <t>Eremothecium</t>
+  </si>
+  <si>
+    <t>gossypii</t>
+  </si>
+  <si>
+    <t>ATCC</t>
+  </si>
+  <si>
+    <t>Schizosaccharomyces</t>
+  </si>
+  <si>
+    <t>pombe</t>
+  </si>
+  <si>
+    <t>Pyricularia</t>
+  </si>
+  <si>
+    <t>oryzae</t>
+  </si>
+  <si>
+    <t>70-15</t>
+  </si>
+  <si>
+    <t>Neurospora</t>
+  </si>
+  <si>
+    <t>crassa</t>
+  </si>
+  <si>
+    <t>OR74A</t>
+  </si>
+  <si>
+    <t>Oryza</t>
+  </si>
+  <si>
+    <t>Japonica</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Xenopus</t>
+  </si>
+  <si>
+    <t>tropicalis</t>
   </si>
 </sst>
 </file>
@@ -2230,9 +2526,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2314,7 +2610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2355,7 +2651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2396,7 +2692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2437,7 +2733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2478,7 +2774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2519,7 +2815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2560,7 +2856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2601,7 +2897,7 @@
         <v>97.69</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2642,7 +2938,7 @@
         <v>98.73</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2683,7 +2979,7 @@
         <v>98.91</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2724,7 +3020,7 @@
         <v>97.81</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2765,7 +3061,7 @@
         <v>98.77</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2806,7 +3102,7 @@
         <v>98.79</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2847,7 +3143,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2888,7 +3184,7 @@
         <v>98.74</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2929,7 +3225,7 @@
         <v>98.92</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2970,7 +3266,7 @@
         <v>97.97</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3011,7 +3307,7 @@
         <v>98.24</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3052,7 +3348,7 @@
         <v>98.83</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3093,7 +3389,7 @@
         <v>98.24</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3134,7 +3430,7 @@
         <v>98.86</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3175,7 +3471,7 @@
         <v>98.95</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3216,7 +3512,7 @@
         <v>98.79</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3257,7 +3553,7 @@
         <v>97.45</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3298,7 +3594,7 @@
         <v>98.84</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3339,7 +3635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3380,7 +3676,7 @@
         <v>96.04</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3421,7 +3717,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3462,7 +3758,7 @@
         <v>98.77</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3503,7 +3799,7 @@
         <v>98.72</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3544,7 +3840,7 @@
         <v>98.88</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3585,7 +3881,7 @@
         <v>98.88</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3626,7 +3922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3667,7 +3963,7 @@
         <v>98.72</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -3708,7 +4004,7 @@
         <v>89.62</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -3749,7 +4045,7 @@
         <v>98.72</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3790,7 +4086,7 @@
         <v>98.95</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3831,7 +4127,7 @@
         <v>98.71</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -3872,7 +4168,7 @@
         <v>80.55</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3913,7 +4209,7 @@
         <v>98.51</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3954,7 +4250,7 @@
         <v>98.82</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3995,7 +4291,7 @@
         <v>93.36</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -4036,7 +4332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -4077,7 +4373,7 @@
         <v>98.95</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -4118,7 +4414,7 @@
         <v>97.94</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -4159,7 +4455,7 @@
         <v>98.11</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -4200,7 +4496,7 @@
         <v>98.85</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -4241,7 +4537,7 @@
         <v>98.76</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -4282,7 +4578,7 @@
         <v>98.78</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -4323,7 +4619,7 @@
         <v>97.39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -4364,7 +4660,7 @@
         <v>98.71</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -4405,7 +4701,7 @@
         <v>98.69</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4446,7 +4742,7 @@
         <v>98.84</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4487,7 +4783,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4528,7 +4824,7 @@
         <v>98.69</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4569,7 +4865,7 @@
         <v>95.22</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4610,7 +4906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -4651,7 +4947,7 @@
         <v>98.13</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4692,7 +4988,7 @@
         <v>98.71</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4733,7 +5029,7 @@
         <v>98.68</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -4774,7 +5070,7 @@
         <v>98.76</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -4815,7 +5111,7 @@
         <v>97.14</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -4856,7 +5152,7 @@
         <v>99.29</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -4897,7 +5193,7 @@
         <v>99.31</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -4938,7 +5234,7 @@
         <v>98.09</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -4979,7 +5275,7 @@
         <v>28.99</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -5020,7 +5316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -5061,7 +5357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -5102,7 +5398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -5143,7 +5439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5184,7 +5480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -5225,7 +5521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -5266,7 +5562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -5307,7 +5603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -5348,7 +5644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -5398,318 +5694,318 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A60" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>294</v>
       </c>
@@ -5721,392 +6017,981 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+      <c r="B1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" t="str">
+        <f>LEFT(A1,1)&amp;LEFT(B1,3)</f>
+        <v>Atha</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+      <c r="B2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" si="0">LEFT(A2,1)&amp;LEFT(B2,3)</f>
+        <v>Crub</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>Csat</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+      <c r="B4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Bole</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+      <c r="B5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Brap</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Esal</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+      <c r="B7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Thas</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+      <c r="B8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>Rsat</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+      <c r="B9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>Jreg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>Cmos</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+      <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>Dzib</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+      <c r="B12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>Cpep</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+      <c r="B13" t="s">
+        <v>384</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>Gmax</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+      <c r="B14" t="s">
+        <v>374</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>Csat</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="B15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>Ccar</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+      <c r="B16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>Tcac</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="B17" t="s">
+        <v>392</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>Mcha</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+      <c r="B18" t="s">
+        <v>394</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>Hann</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+      <c r="B19" t="s">
+        <v>396</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>Vung</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+      <c r="B20" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" t="s">
+        <v>397</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>Vrad</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+      <c r="B21" t="s">
+        <v>399</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>Grai</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+      <c r="B22" t="s">
+        <v>401</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>Cari</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+      <c r="B23" t="s">
+        <v>403</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>Cara</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+      <c r="B24" t="s">
+        <v>405</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>Pvul</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+      <c r="B25" t="s">
+        <v>407</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>Apre</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+      <c r="B26" t="s">
+        <v>409</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>Qsub</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+      <c r="B27" t="s">
+        <v>410</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>Gsoj</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+      <c r="B28" t="s">
+        <v>412</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>Lang</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+      <c r="B29" t="s">
+        <v>414</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>Sind</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+      <c r="B30" t="s">
+        <v>416</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>Pper</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+      <c r="B31" t="s">
+        <v>418</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>Rcom</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+      <c r="B32" t="s">
+        <v>420</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>Stub</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+      <c r="B33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C33" t="s">
+        <v>367</v>
+      </c>
+      <c r="D33" t="s">
+        <v>423</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>Oeur</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+      <c r="B34" t="s">
+        <v>425</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>Nnuc</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+      <c r="B35" t="s">
+        <v>427</v>
+      </c>
+      <c r="C35" t="s">
+        <v>382</v>
+      </c>
+      <c r="D35" t="s">
+        <v>374</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>Dcar</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+      <c r="B36" t="s">
+        <v>428</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>Spen</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+      <c r="B37" t="s">
+        <v>430</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>Mtru</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+      <c r="B38" t="s">
+        <v>431</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>Pmum</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+      <c r="B39" t="s">
+        <v>433</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>Cpap</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+      <c r="B40" t="s">
+        <v>435</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>Mesc</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+      <c r="B41" t="s">
+        <v>436</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>Slyc</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+      <c r="B42" t="s">
+        <v>438</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>Hbra</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+      <c r="B43" t="s">
+        <v>440</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>Aipa</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+      <c r="B44" t="s">
+        <v>442</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>Csin</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+      <c r="B45" t="s">
+        <v>443</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>Ghir</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+      <c r="B46" t="s">
+        <v>445</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>Ptri</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+      <c r="B47" t="s">
+        <v>447</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>Rchi</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+      <c r="B48" t="s">
+        <v>448</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>Cmax</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+      <c r="B49" t="s">
+        <v>450</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>Zjuj</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+      <c r="B50" t="s">
+        <v>451</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>Peup</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+      <c r="B51" t="s">
+        <v>453</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>Jcur</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>455</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>Pequ</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>456</v>
+      </c>
+      <c r="B53" t="s">
+        <v>457</v>
+      </c>
+      <c r="C53" t="s">
+        <v>382</v>
+      </c>
+      <c r="D53" t="s">
+        <v>457</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>Fves</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+      <c r="B54" t="s">
+        <v>442</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>Csin</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+      <c r="B55" t="s">
+        <v>460</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>Ntom</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+        <v>461</v>
+      </c>
+      <c r="B56" t="s">
+        <v>462</v>
+      </c>
+      <c r="C56" t="s">
+        <v>463</v>
+      </c>
+      <c r="G56" t="str">
+        <f>LEFT(A56,1)&amp;LEFT(C56,3)</f>
+        <v>Pbre</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="B57" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>Cann</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+      <c r="B58" t="s">
+        <v>467</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>Egut</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+      <c r="B59" t="s">
+        <v>468</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>Ccle</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+      <c r="B60" t="s">
+        <v>470</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>Mnot</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+      <c r="B61" t="s">
+        <v>472</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>Inil</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+      <c r="B62" t="s">
+        <v>474</v>
+      </c>
+      <c r="C62" t="s">
+        <v>382</v>
+      </c>
+      <c r="D62" t="s">
+        <v>475</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>Macu</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+      <c r="B63" t="s">
+        <v>477</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>Mdom</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+      <c r="B64" t="s">
+        <v>479</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>Aoff</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+      <c r="B65" t="s">
+        <v>481</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>Phal</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+      <c r="B66" t="s">
+        <v>483</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G76" si="1">LEFT(A66,1)&amp;LEFT(B66,3)</f>
+        <v>Zmay</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+      <c r="B67" t="s">
+        <v>485</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>Sita</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+      <c r="B68" t="s">
+        <v>487</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>Atri</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+      <c r="B69" t="s">
+        <v>489</v>
+      </c>
+      <c r="C69" t="s">
+        <v>382</v>
+      </c>
+      <c r="D69" t="s">
+        <v>489</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>Atau</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="B70" t="s">
+        <v>491</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>Dcat</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+      <c r="B71" t="s">
+        <v>493</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>Ccaj</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+        <v>494</v>
+      </c>
+      <c r="B72" t="s">
+        <v>495</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>Bdis</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+      <c r="B73" t="s">
+        <v>497</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>Egui</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+      <c r="B74" t="s">
+        <v>499</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>Sbic</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+      <c r="B75" t="s">
+        <v>501</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>Vvin</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>370</v>
+        <v>502</v>
+      </c>
+      <c r="B76" t="s">
+        <v>503</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>Acom</v>
       </c>
     </row>
   </sheetData>
@@ -6116,112 +7001,282 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+      <c r="B1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1" t="str">
+        <f>LEFT(A1,1)&amp;LEFT(B1,3)</f>
+        <v>Hsap</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+      <c r="B2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E20" si="0">LEFT(A2,1)&amp;LEFT(B2,3)</f>
+        <v>Ptro</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>508</v>
+      </c>
+      <c r="B3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mmul</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+      <c r="B4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Clup</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>513</v>
+      </c>
+      <c r="B5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Btau</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+      <c r="B6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mmus</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+      <c r="B7" t="s">
+        <v>518</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Rnor</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+      <c r="B8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ggal</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>521</v>
+      </c>
+      <c r="B9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Drer</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+      <c r="B10" t="s">
+        <v>524</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Dmel</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+      <c r="B11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Agam</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>529</v>
+      </c>
+      <c r="B12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C12" t="s">
+        <v>531</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Scer</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+      <c r="B13" t="s">
+        <v>533</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Klac</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+      <c r="B14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C14" t="s">
+        <v>536</v>
+      </c>
+      <c r="D14">
+        <v>10895</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Egos</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+      <c r="B15" t="s">
+        <v>538</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Spom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>539</v>
+      </c>
+      <c r="B16" t="s">
+        <v>540</v>
+      </c>
+      <c r="C16" t="s">
+        <v>541</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Pory</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+      <c r="B17" t="s">
+        <v>543</v>
+      </c>
+      <c r="C17" t="s">
+        <v>544</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ncra</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+      <c r="B18" t="s">
+        <v>360</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Atha</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+      <c r="B19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" t="s">
+        <v>546</v>
+      </c>
+      <c r="D19" t="s">
+        <v>547</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Osat</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>389</v>
+        <v>548</v>
+      </c>
+      <c r="B20" t="s">
+        <v>549</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Xtro</v>
       </c>
     </row>
   </sheetData>
@@ -6231,332 +7286,588 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+      <c r="D1" t="str">
+        <f>MID(A1,5,4)</f>
+        <v>Mpus</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D64" si="0">MID(A2,5,4)</f>
+        <v>Smoe</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>Rcom</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Oluc</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Csub</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Msp.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Acom</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ahyp</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Alyr</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Acoe</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ahal</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Atha</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Bole</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Bstr</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Bdis</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Brap</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Bsta</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Cgra</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Crub</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ccle</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Crei</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Csat</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Dcar</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Dsal</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>Egra</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>Atri</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Cpap</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>Gmax</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>Grai</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>Zmay</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Macu</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Vvin</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Kfed</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Klax</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Osat</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Lusi</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>Mesc</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Mpol</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>Mdom</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>Mtru</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Mgut</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Fves</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>Csin</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>Otho</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>Phal</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>Pvir</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>Stub</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pvul</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>Ptri</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>Ppat</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>Pper</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>Spur</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>Sita</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>Svir</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>Sbic</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>Slyc</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>Sfal</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>Spol</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>Tcac</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>Esal</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>Tpra</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>Vcar</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>Zmay</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>453</v>
+        <v>358</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>Zmar</v>
       </c>
     </row>
   </sheetData>
